--- a/assets/disciplinas/LOM3257.xlsx
+++ b/assets/disciplinas/LOM3257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,70 +70,55 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver os fundamentos da Mecânica Clássica com ênfase no formalismo, suas consequências e aplicações.</t>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>3682251 - Gabrielle Weber Martins</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>5729033 - Weiliang Qian</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Fundamentos da estática de corpos rígidos. Revisão da dinâmica newtoniana (“mecânica vetorial”). Estrutura geral da mecânica clássica nas formulações lagrangiana e hamiltoniana. Relação entre simetrias contínuas e leis de conservação, teorema de Noether. Aplicações à cinemática da rotação, dinâmica do corpo rígido e pequenas oscilações.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Estática de corpos rígidos: forças equivalentes, momento equivalente, equilíbrio do corpo sob ação de um sistema de forças, isostática, reações de apoios, análise de estruturas, treliças. 2. Cinemática do corpo rígido: aceleração e velocidade angulares, vínculos, rotação em torno de um eixo fixo, movimento plano e centro de rotação, composição de movimentos. Princípios da dinâmica do ponto. Dinâmica do corpo rígido: Teorema da energia cinética para um sistema de partículas. Teorema do momento angular para um sistema de partículas. Teorema da energia cinética para o corpo rígido. Teorema do momento angular para corpo rígido Exercícios de aplicação: problemas bidimensionais. 3. Dinâmica lagrangiana: revisão dos princípios da mecânica newtoniana; coordenadas generalizadas; princípio variacional de Hamilton; equações de Euler-Lagrange; forças centrais. 4. Simetrias e leis de conservação: energia; momento; momento angular; teorema de Noether. 5. Dinâmica do corpo rígido: ângulos de Euler; rotações infinitesimais e velocidade angular; dinâmica em referenciais não-inerciais; tensor de inércia; momento angular de um corpo rígido; equações de movimento de um corpo rígido; equações de Euler. 6. Pequenas oscilações: oscilações livres em uma dimensão; oscilações forçadas; pequenas oscilações em sistemas com mais do que um grau de liberdade; modos normais. 7. Dinâmica hamiltoniana: equações de Hamilton, parênteses de Poisson.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>A avaliação será composta por duas provas escritas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NS = NP1+NP2; NP1: questões da P1 valendo até 4p. no total; NP2: questões da P2 valendo até 6 p. no total.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>THORNTON, S. T. MARION, J. B. – Dinâmica Clássica de Partículas e Sistemas, tradução da 5ª edição norte-americana, CENGAGE Learning, 2016, 575 p.F.P. BEER, E.R. JOHNSTON, E. RUSSEL. - Mecânica vetorial para engenheiros: Estática, McGraw Hill. 9a Ed., 2012, 626 p.BEER, F.P., JOHNSTON Jr., E.R., CLAUSEN, W. E. - Mecânica Vetorial para Engenheiros: Dinâmica, McGraw-Hill. 7ª Ed., 2006, 1355 p.GOLDSTEIN, H.; POOLE, C.; SAFKO, J. – Classical Mechanics, Addison-Wesley Pub. Co. 2013LEMOS, N. A. – Mecânica Analítica, Livraria da Física. 2007KOMPANEYETS, A. S. – Theoretical Physics, Peace Publishers. 2012LANDAU, L. D.; LIFSHITZ, E. M. – Mechanics, Pergamon Press. 1969</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,143 +605,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3257.xlsx
+++ b/assets/disciplinas/LOM3257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,31 +76,34 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>3682251 - Gabrielle Weber Martins</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Review of Newtonian dynamics (“vector mechanics”). General structure of classical mechanics in the Lagrangian and Hamiltonian formulations. Applications to problems of central forces and dynamics of rigid bodies. Problems in non-inertial frames.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>7797767 - Viktor Pastoukhov</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>1. Review of point kinematics: position, velocity and acceleration vectors. 2. Forces, resultant force, conservation of linear momentum and Newton's Laws of Dynamics; 3. Work and energy; kinetic energy and potential energy. Kinetic energy theorem and conservation of total energy. 4. Hamilton's variational principle and the Lagrangian Formulation of Mechanics: generalized coordinates, Lagrangian and the Euler-Lagrange equations. Ignorable coordinates and conservation principles. 5. Applications: central forces; torque and conservation of angular momentum; two-body problems with mutual attraction or repulsion; Gravitation and Kepler's laws. 6. Linearly accelerated and rotating non-inertial frames of reference. Inertia forces: centrifugal force, Coriolis force. Effects of inertia forces on planet Earth; Foucault pendulum. 7. Statics and Dynamics of Rigid Bodies; moments of inertia; torques; Plane motion of rigid bodies; parallel axis theorem. 8. Hamilton's Formulation for Classical Mechanics: the Hamiltonian and Hamilton's equations</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>5729033 - Weiliang Qian</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -112,7 +115,7 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NS = NP1+NP2; NP1: questões da P1 valendo até 4p. no total; NP2: questões da P2 valendo até 6 p. no total.</t>
+    <t>A nota final (NF) será a média ponderada de três provas, P1 (peso 1), P2 (peso 1) e P3 (peso 2)</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,97 +608,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -705,6 +717,14 @@
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3257.xlsx
+++ b/assets/disciplinas/LOM3257.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver os fundamentos da Mecânica Clássica com ênfase no formalismo, suas consequências e aplicações. Ao final do curso, o estudante estará apto a aplicar os diversos formalismos da Mecânica Clássica à descrição do movimento de sistemas de partículas e corpos rígidos com alto grau de complexidade.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Revisão da dinâmica newtoniana (“mecânica vetorial”). Estrutura geral da mecânica clássica nas formulações lagrangiana e hamiltoniana. Aplicações à problemas de forças centrais e dinâmica de corpos rígidos. Problemas em referenciais não-inerciais.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Revisão da Cinemática do ponto: vetores posição, velocidade e aceleração. 2. Forças, força resultante, conservação do momento linear e as Leis de Newton da Dinâmica; 3. Trabalho e energia; energia cinética e energia potencial. Teorema da energia cinética e conservação da energia total. 4. Princípio variacional de Hamilton e a Formulação Lagrangiana da Mecânica: coordenadas generalizadas, Lagrangiana e as equações de Euler-Lagrange. Coordenadas ignoráveis e princípios de conservação. 5. Aplicações: forças centrais; torque e conservação do momento angular; problemas de dois corpos com atração ou repulsão mútua; Gravitação e as leis de Kepler. 6. Referenciais não inerciais linearmente acelerados e em rotação. Forças de inércia: força centrífuga, força de Coriolis. Efeitos das forças de inércia no planeta Terra; Pêndulo de Foucault. 7. Estática e Dinâmica de corpos rígidos; momentos de inércia; torques; Movimento plano de corpos rígidos; teorema dos eixos paralelos . 8. Formulação de Hamilton para a Mecânica Clássica: a Hamiltoniana e as equações de Hamilton</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>A avaliação será composta por duas provas escritas (P1 e P2).</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será composta por duas provas escritas (P1 e P2).</t>
+    <t>A nota final (NF) será a média ponderada de três provas, P1 (peso 1), P2 (peso 1) e P3 (peso 2)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será a média ponderada de três provas, P1 (peso 1), P2 (peso 1) e P3 (peso 2)</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>TAYLOR, J. R. - Mecânica Clássica, Bookman, 2015. THORNTON, S. T. MARION, J. B. – Dinâmica Clássica de Partículas e Sistemas, tradução da 5ª edição norte-americana, CENGAGE Learning, 2016. F.P. BEER, E.R. JOHNSTON, E. RUSSEL. - Mecânica vetorial para engenheiros: Estática, McGraw Hill. 9a Ed., 2012. BEER, F.P., JOHNSTON Jr., E.R., CLAUSEN, W. E. - Mecânica Vetorial para Engenheiros: Dinâmica, McGraw-Hill. 7ª Ed., 2006. GOLDSTEIN, H.; POOLE, C.; SAFKO, J. – Classical Mechanics, Addison-Wesley Pub. Co. 2013.LEMOS, N. A. – Mecânica Analítica, Livraria da Física. 2007.KOMPANEYETS, A. S. – Theoretical Physics, Peace Publishers. 2012. LANDAU, L. D.; LIFSHITZ, E. M. – Mechanics, Pergamon Press. 1969</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,40 +625,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -657,30 +663,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -695,7 +701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -706,25 +712,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
